--- a/web/public/templates/ershoufang_import_template.xlsx
+++ b/web/public/templates/ershoufang_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bugco/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bugco/Desktop/Vue/reBestHouse/web/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D873E6F1-0215-B142-B2D2-74B1AB4518C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2F8D75-2B12-5F41-AC88-7F97AF48606D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15780" xr2:uid="{9EA13CB0-40C5-4349-8257-5A5580FBA9C9}"/>
+    <workbookView xWindow="6180" yWindow="500" windowWidth="50000" windowHeight="24580" xr2:uid="{9EA13CB0-40C5-4349-8257-5A5580FBA9C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={524DEF0A-F9E1-CB41-84C3-EB91A0D03FA1}</author>
+  </authors>
+  <commentList>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{524DEF0A-F9E1-CB41-84C3-EB91A0D03FA1}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    板楼/塔楼/板塔结合</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>浦东</t>
   </si>
@@ -47,96 +65,51 @@
     <t>万科花园</t>
   </si>
   <si>
-    <t>已有小区或创建新小区/必填</t>
-  </si>
-  <si>
-    <t>所在区域</t>
-  </si>
-  <si>
-    <t>区域名称</t>
-  </si>
-  <si>
-    <t>所在商圈</t>
-  </si>
-  <si>
     <t>张江</t>
   </si>
   <si>
-    <t>商圈名称</t>
-  </si>
-  <si>
     <t>户型*</t>
   </si>
   <si>
     <t>2室1厅</t>
   </si>
   <si>
-    <t>必填，例：2室1厅、3室2厅</t>
-  </si>
-  <si>
     <t>建筑面积*</t>
   </si>
   <si>
-    <t>必填，数字(㎡)</t>
-  </si>
-  <si>
     <t>楼层信息</t>
   </si>
   <si>
     <t>低楼层/共33层</t>
   </si>
   <si>
-    <t>选填，优先使用此字段</t>
-  </si>
-  <si>
     <t>所在楼层</t>
   </si>
   <si>
-    <t>数字，与总楼层配合使用</t>
-  </si>
-  <si>
     <t>总楼层</t>
   </si>
   <si>
-    <t>数字，与所在楼层配合使用</t>
-  </si>
-  <si>
     <t>房屋朝向</t>
   </si>
   <si>
     <t>朝南</t>
   </si>
   <si>
-    <t>朝南/朝北/朝东/朝西/南北</t>
-  </si>
-  <si>
     <t>梯户比</t>
   </si>
   <si>
     <t>2梯4户</t>
   </si>
   <si>
-    <t>例：2梯4户、3梯6户</t>
-  </si>
-  <si>
     <t>总价(万)*</t>
   </si>
   <si>
-    <t>必填，数字</t>
-  </si>
-  <si>
     <t>单价(元/平)</t>
   </si>
   <si>
-    <t>数字，可由总价自动计算</t>
-  </si>
-  <si>
     <t>挂牌时间</t>
   </si>
   <si>
-    <t>日期格式：YYYY-MM-DD</t>
-  </si>
-  <si>
     <t>上次交易时间</t>
   </si>
   <si>
@@ -146,18 +119,12 @@
     <t>无抵押</t>
   </si>
   <si>
-    <t>文字描述</t>
-  </si>
-  <si>
     <t>户型图链接</t>
   </si>
   <si>
     <t>http://example.com/1.jpg</t>
   </si>
   <si>
-    <t>完整URL地址</t>
-  </si>
-  <si>
     <t>房源链接</t>
   </si>
   <si>
@@ -170,47 +137,41 @@
     <t>shanghai</t>
   </si>
   <si>
-    <t>城市拼音，默认小写</t>
-  </si>
-  <si>
     <t>建筑年代</t>
   </si>
   <si>
-    <t>年份(1900-2024)</t>
-  </si>
-  <si>
     <t>建筑结构</t>
   </si>
   <si>
-    <t>钢混</t>
-  </si>
-  <si>
-    <t>钢混/砖混/其他</t>
-  </si>
-  <si>
     <t>数据来源</t>
   </si>
   <si>
     <t>import</t>
   </si>
   <si>
-    <t>导入来源说明</t>
-  </si>
-  <si>
     <t>平台房源ID</t>
   </si>
   <si>
     <t>LJ123456</t>
   </si>
   <si>
-    <t>字符串</t>
+    <t>所在区域*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在商圈*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +186,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,6 +239,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName=" " id="{10494183-0B4C-3646-9B4B-A776B72C9C76}" userId="S::user2913@edu365.site::1bf1f663-af04-4b1e-bc70-16d19acdc349" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,12 +562,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="T1" dT="2025-02-17T02:47:16.71" personId="{10494183-0B4C-3646-9B4B-A776B72C9C76}" id="{524DEF0A-F9E1-CB41-84C3-EB91A0D03FA1}">
+    <text>板楼/塔楼/板塔结合</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7872A2-D132-8A4C-9FBB-761A44041647}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7872A2-D132-8A4C-9FBB-761A44041647}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="276" zoomScaleNormal="276" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -603,67 +585,67 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -674,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>89.5</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -692,10 +674,10 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>580</v>
@@ -710,100 +692,33 @@
         <v>43997</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S2">
         <v>2015</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
         <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>